--- a/biology/Microbiologie/Aerophobota/Aerophobota.xlsx
+++ b/biology/Microbiologie/Aerophobota/Aerophobota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les "Candidatus Aerophobota" sont un phylum candidatus du règne des Bacteria.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce phylum est proposé en 2013 par Christian Rinke sous le nom de Aerophobetes pour contenir la bactérie non cultivable "Candidatus Aerophobus"[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce phylum est proposé en 2013 par Christian Rinke sous le nom de Aerophobetes pour contenir la bactérie non cultivable "Candidatus Aerophobus".
 </t>
         </is>
       </c>
@@ -542,13 +556,85 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Proposé en 2013 sous le nom de "Candidatus Aerophobetes", le nom de ce phylum est considéré comme n'ayant pas de statut nomenclatural d'où les guillemets autour de son nom et l'ajout du terme Candidatus. Son nom est considéré comme non correct et comportant un faute[2],[3]. Une proposition de modification de son nom en "Candidatus Aerophobota" est alors effectuée et devient le nom préféré et non pas le nom correct[2].
-Étymologie
-L'étymologie du nom actuel de ce phylum est la suivante : selon la LPSN A.e.ro.pho.bo’ta. N.L. masc. n. Aerophobus, un genre candidat; L. neut. pl. n. suff. -ota, suffixe définissant un phylum; N.L. neut. pl. n. Aerophobota, la phylem du Candidatus Aerophobus[4].
-Liste des classes
-Selon la base de nomenclature LPSN  (02/08/2023)[5], ce phylum ne contient pas de classe publiée de manière valide.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Proposé en 2013 sous le nom de "Candidatus Aerophobetes", le nom de ce phylum est considéré comme n'ayant pas de statut nomenclatural d'où les guillemets autour de son nom et l'ajout du terme Candidatus. Son nom est considéré comme non correct et comportant un faute,. Une proposition de modification de son nom en "Candidatus Aerophobota" est alors effectuée et devient le nom préféré et non pas le nom correct.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aerophobota</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aerophobota</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom actuel de ce phylum est la suivante : selon la LPSN A.e.ro.pho.bo’ta. N.L. masc. n. Aerophobus, un genre candidat; L. neut. pl. n. suff. -ota, suffixe définissant un phylum; N.L. neut. pl. n. Aerophobota, la phylem du Candidatus Aerophobus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aerophobota</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aerophobota</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des classes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la base de nomenclature LPSN  (02/08/2023), ce phylum ne contient pas de classe publiée de manière valide.
 </t>
         </is>
       </c>
